--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2578.319078333333</v>
+        <v>0.07631500000000001</v>
       </c>
       <c r="H2">
-        <v>7734.957235</v>
+        <v>0.228945</v>
       </c>
       <c r="I2">
-        <v>0.9999384021611217</v>
+        <v>0.3245462702943307</v>
       </c>
       <c r="J2">
-        <v>0.9999384021611217</v>
+        <v>0.3245462702943307</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.48784766666667</v>
+        <v>1.949849666666667</v>
       </c>
       <c r="N2">
-        <v>67.463543</v>
+        <v>5.849549000000001</v>
       </c>
       <c r="O2">
-        <v>0.4520839499795984</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="P2">
-        <v>0.4520839499795983</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="Q2">
-        <v>57980.84666962041</v>
+        <v>0.1488027773116667</v>
       </c>
       <c r="R2">
-        <v>521827.6200265836</v>
+        <v>1.339224995805</v>
       </c>
       <c r="S2">
-        <v>0.4520561025852881</v>
+        <v>0.02166835358499365</v>
       </c>
       <c r="T2">
-        <v>0.452056102585288</v>
+        <v>0.02166835358499365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2578.319078333333</v>
+        <v>0.07631500000000001</v>
       </c>
       <c r="H3">
-        <v>7734.957235</v>
+        <v>0.228945</v>
       </c>
       <c r="I3">
-        <v>0.9999384021611217</v>
+        <v>0.3245462702943307</v>
       </c>
       <c r="J3">
-        <v>0.9999384021611217</v>
+        <v>0.3245462702943307</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>69.80431</v>
       </c>
       <c r="O3">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802238</v>
       </c>
       <c r="P3">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802239</v>
       </c>
       <c r="Q3">
-        <v>59992.59474096476</v>
+        <v>1.775705305883333</v>
       </c>
       <c r="R3">
-        <v>539933.3526686828</v>
+        <v>15.98134775295</v>
       </c>
       <c r="S3">
-        <v>0.4677409889702243</v>
+        <v>0.2585745449497914</v>
       </c>
       <c r="T3">
-        <v>0.4677409889702242</v>
+        <v>0.2585745449497915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2578.319078333333</v>
+        <v>0.07631500000000001</v>
       </c>
       <c r="H4">
-        <v>7734.957235</v>
+        <v>0.228945</v>
       </c>
       <c r="I4">
-        <v>0.9999384021611217</v>
+        <v>0.3245462702943307</v>
       </c>
       <c r="J4">
-        <v>0.9999384021611217</v>
+        <v>0.3245462702943307</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.960057</v>
       </c>
       <c r="O4">
-        <v>0.08014624744124609</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="P4">
-        <v>0.08014624744124607</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="Q4">
-        <v>10278.94771368471</v>
+        <v>0.3042439166516667</v>
       </c>
       <c r="R4">
-        <v>92510.52942316238</v>
+        <v>2.738195249865</v>
       </c>
       <c r="S4">
-        <v>0.0801413106056095</v>
+        <v>0.04430337175954562</v>
       </c>
       <c r="T4">
-        <v>0.08014131060560949</v>
+        <v>0.04430337175954562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1588286666666666</v>
+        <v>0.1588286666666667</v>
       </c>
       <c r="H5">
         <v>0.476486</v>
       </c>
       <c r="I5">
-        <v>6.159783887830948E-05</v>
+        <v>0.6754537297056692</v>
       </c>
       <c r="J5">
-        <v>6.159783887830948E-05</v>
+        <v>0.6754537297056693</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.48784766666667</v>
+        <v>1.949849666666667</v>
       </c>
       <c r="N5">
-        <v>67.463543</v>
+        <v>5.849549000000001</v>
       </c>
       <c r="O5">
-        <v>0.4520839499795984</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="P5">
-        <v>0.4520839499795983</v>
+        <v>0.06676506732104066</v>
       </c>
       <c r="Q5">
-        <v>3.571714861099777</v>
+        <v>0.3096920227571112</v>
       </c>
       <c r="R5">
-        <v>32.145433749898</v>
+        <v>2.787228204814</v>
       </c>
       <c r="S5">
-        <v>2.784739431031302E-05</v>
+        <v>0.045096713736047</v>
       </c>
       <c r="T5">
-        <v>2.784739431031302E-05</v>
+        <v>0.04509671373604701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1588286666666666</v>
+        <v>0.1588286666666667</v>
       </c>
       <c r="H6">
         <v>0.476486</v>
       </c>
       <c r="I6">
-        <v>6.159783887830948E-05</v>
+        <v>0.6754537297056692</v>
       </c>
       <c r="J6">
-        <v>6.159783887830948E-05</v>
+        <v>0.6754537297056693</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>69.80431</v>
       </c>
       <c r="O6">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802238</v>
       </c>
       <c r="P6">
-        <v>0.4677698025791556</v>
+        <v>0.7967262871802239</v>
       </c>
       <c r="Q6">
         <v>3.695641828295555</v>
@@ -818,10 +818,10 @@
         <v>33.26077645466</v>
       </c>
       <c r="S6">
-        <v>2.881360893140946E-05</v>
+        <v>0.5381517422304323</v>
       </c>
       <c r="T6">
-        <v>2.881360893140946E-05</v>
+        <v>0.5381517422304324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1588286666666666</v>
+        <v>0.1588286666666667</v>
       </c>
       <c r="H7">
         <v>0.476486</v>
       </c>
       <c r="I7">
-        <v>6.159783887830948E-05</v>
+        <v>0.6754537297056692</v>
       </c>
       <c r="J7">
-        <v>6.159783887830948E-05</v>
+        <v>0.6754537297056693</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>11.960057</v>
       </c>
       <c r="O7">
-        <v>0.08014624744124609</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="P7">
-        <v>0.08014624744124607</v>
+        <v>0.1365086454987356</v>
       </c>
       <c r="Q7">
-        <v>0.6331999688557777</v>
+        <v>0.6331999688557778</v>
       </c>
       <c r="R7">
         <v>5.698799719701999</v>
       </c>
       <c r="S7">
-        <v>4.936835636587E-06</v>
+        <v>0.09220527373918999</v>
       </c>
       <c r="T7">
-        <v>4.936835636586999E-06</v>
+        <v>0.09220527373919001</v>
       </c>
     </row>
   </sheetData>
